--- a/data/trans_dic/P32B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32B-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02795731906457059</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0494632052383623</v>
+        <v>0.04946320523836231</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0.02254345337581148</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.04099065742703221</v>
+        <v>0.0409906574270322</v>
       </c>
     </row>
     <row r="5">
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005715784699043966</v>
+        <v>0.005671514882018838</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01123227116331501</v>
+        <v>0.01413092048087214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01216124500496913</v>
+        <v>0.01330539625860473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02732957460988233</v>
+        <v>0.02796187514604813</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004267784759232907</v>
+        <v>0.004145416310207469</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01075919273725967</v>
+        <v>0.009891468974138527</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0114844975864578</v>
+        <v>0.0107504538534269</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02281890681571475</v>
+        <v>0.02357315148096845</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0298396415647594</v>
+        <v>0.03239082319256385</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04758354494349756</v>
+        <v>0.04865479468410878</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05132461777112968</v>
+        <v>0.05156070615533052</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08516307833310723</v>
+        <v>0.08365163639711579</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.02299601987336082</v>
+        <v>0.02138974022672306</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04128090200229319</v>
+        <v>0.04154772136609576</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04066458464297482</v>
+        <v>0.04696639347683637</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02181566139276061</v>
+        <v>0.02243043442168731</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03613771422707428</v>
+        <v>0.03479659701625218</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04193843733958796</v>
+        <v>0.04067008329562084</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06887948389239533</v>
+        <v>0.07092486027522193</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.01620382008309763</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.01655971012567865</v>
+        <v>0.01655971012567864</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003414955105067013</v>
+        <v>0.003478872343113262</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02191818278875564</v>
+        <v>0.02212278028218875</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01312667524639038</v>
+        <v>0.01222718471860958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007373547553761482</v>
+        <v>0.007296245460944268</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005719848632146418</v>
+        <v>0.005935785055062323</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.00377786022678645</v>
+        <v>0.003563620134892942</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005237512847696247</v>
+        <v>0.004140515821258699</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.009574536808194818</v>
+        <v>0.00974637803341168</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005626661043410349</v>
+        <v>0.005393407245954013</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01806183778398962</v>
+        <v>0.01722049761585122</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01137146351057918</v>
+        <v>0.01116027256058437</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01007527642332091</v>
+        <v>0.01056080245055484</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01331362196516352</v>
+        <v>0.01379894506603552</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04144936097707135</v>
+        <v>0.04077700425490557</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02881009318267344</v>
+        <v>0.02784952898979097</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02617265801826958</v>
+        <v>0.02609097222279402</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02783736859779183</v>
+        <v>0.02785369871693997</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02124776155917492</v>
+        <v>0.02250947122612974</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02209347463591914</v>
+        <v>0.01995618828672217</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03799678898944562</v>
+        <v>0.0415850248497453</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01521783432609532</v>
+        <v>0.01533740803557594</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03148484507076794</v>
+        <v>0.03130557050863022</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02286210123136972</v>
+        <v>0.02273172822704667</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02639483325426353</v>
+        <v>0.02626186051621631</v>
       </c>
     </row>
     <row r="10">
@@ -979,35 +979,35 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01048930493385213</v>
+        <v>0.01139684647181348</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00809573991863197</v>
+        <v>0.008075601711436717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01015281718747833</v>
+        <v>0.01084201758036236</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.00316826153263519</v>
+        <v>0.003261499386466518</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007422593250691984</v>
+        <v>0.007591241055675436</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001874951325571591</v>
+        <v>0.001872293938113741</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.006582803847704647</v>
+        <v>0.007093932356220607</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.007587512999553367</v>
+        <v>0.007449647369563828</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01246412902190125</v>
+        <v>0.01205251801051395</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02081848412234031</v>
+        <v>0.02110366488943117</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05663178480194531</v>
+        <v>0.05307939527848966</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0438500220851948</v>
+        <v>0.04287303734876232</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04063658240331099</v>
+        <v>0.04783834376363542</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03214524991886022</v>
+        <v>0.0320725322712211</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.02762723328666601</v>
+        <v>0.0302479406093064</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03559310915203356</v>
+        <v>0.03474533314896353</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02135821573412818</v>
+        <v>0.01825876878110181</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03326405646963217</v>
+        <v>0.03393438962583018</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02938054946056964</v>
+        <v>0.02859620861651484</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03248180016736055</v>
+        <v>0.03517820017962761</v>
       </c>
     </row>
     <row r="13">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004720377779694115</v>
+        <v>0.004919208140667044</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02194469609578091</v>
+        <v>0.02206241331232982</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01547507845160667</v>
+        <v>0.01554586445155606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01476643839561097</v>
+        <v>0.01506196319145069</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.004835474993158494</v>
+        <v>0.005605348878450519</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002916846375051432</v>
+        <v>0.002959165890967254</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004956307233240725</v>
+        <v>0.005466695850527829</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01156656013837613</v>
+        <v>0.01159179087573988</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.005874340007319813</v>
+        <v>0.005868327643537218</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01622040877191408</v>
+        <v>0.01650319748779843</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01273132345616996</v>
+        <v>0.01280654485258612</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01554411182065936</v>
+        <v>0.01605335922147619</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01320536852441692</v>
+        <v>0.01289902679209168</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0372055887365551</v>
+        <v>0.03812195736626162</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02911633182332491</v>
+        <v>0.02898360659182877</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03122274234310196</v>
+        <v>0.03068742001156061</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01922248352337151</v>
+        <v>0.01950625053626756</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01311776030974178</v>
+        <v>0.01390514901540281</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0169165703157704</v>
+        <v>0.01704518047004745</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03259607407600165</v>
+        <v>0.03093642299960064</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01273656622893044</v>
+        <v>0.01299220238073082</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0268636643435821</v>
+        <v>0.02728912519724478</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0221577022599157</v>
+        <v>0.02270931387008034</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02791358825523727</v>
+        <v>0.02861748099123482</v>
       </c>
     </row>
     <row r="16">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2692</v>
+        <v>2671</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5747</v>
+        <v>7230</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4366</v>
+        <v>4777</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7044</v>
+        <v>7207</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
@@ -1477,16 +1477,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2725</v>
+        <v>2647</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7981</v>
+        <v>7337</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>5676</v>
+        <v>5313</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7591</v>
+        <v>7842</v>
       </c>
     </row>
     <row r="7">
@@ -1497,38 +1497,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14054</v>
+        <v>15256</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24345</v>
+        <v>24893</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18427</v>
+        <v>18511</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21949</v>
+        <v>21559</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>5293</v>
+        <v>4924</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5581</v>
+        <v>5617</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3047</v>
+        <v>3519</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>13930</v>
+        <v>14322</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>26807</v>
+        <v>25812</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>20726</v>
+        <v>20100</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>22914</v>
+        <v>23594</v>
       </c>
     </row>
     <row r="8">
@@ -1631,40 +1631,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3614</v>
+        <v>3682</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26275</v>
+        <v>26520</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16479</v>
+        <v>15349</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7702</v>
+        <v>7622</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3048</v>
+        <v>3163</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2244</v>
+        <v>2117</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3807</v>
+        <v>3010</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5341</v>
+        <v>5437</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8954</v>
+        <v>8582</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>32380</v>
+        <v>30871</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>22541</v>
+        <v>22122</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>16145</v>
+        <v>16923</v>
       </c>
     </row>
     <row r="11">
@@ -1675,40 +1675,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14091</v>
+        <v>14605</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49688</v>
+        <v>48882</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36167</v>
+        <v>34961</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27340</v>
+        <v>27254</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14833</v>
+        <v>14842</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12620</v>
+        <v>13369</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16060</v>
+        <v>14506</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21197</v>
+        <v>23199</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>24216</v>
+        <v>24406</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>56443</v>
+        <v>56122</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45318</v>
+        <v>45060</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>42297</v>
+        <v>42084</v>
       </c>
     </row>
     <row r="12">
@@ -1814,35 +1814,35 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3422</v>
+        <v>3718</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3056</v>
+        <v>3049</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3737</v>
+        <v>3990</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>889</v>
+        <v>915</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1998</v>
+        <v>2043</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3626</v>
+        <v>3907</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4994</v>
+        <v>4903</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7942</v>
+        <v>7679</v>
       </c>
     </row>
     <row r="15">
@@ -1853,38 +1853,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7297</v>
+        <v>7397</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18473</v>
+        <v>17314</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16554</v>
+        <v>16186</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14955</v>
+        <v>17606</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6240</v>
+        <v>6226</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>7753</v>
+        <v>8488</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9579</v>
+        <v>9351</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11633</v>
+        <v>9944</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>18322</v>
+        <v>18691</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>19336</v>
+        <v>18820</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>20696</v>
+        <v>22414</v>
       </c>
     </row>
     <row r="16">
@@ -1987,40 +1987,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8874</v>
+        <v>9248</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>44692</v>
+        <v>44932</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>30825</v>
+        <v>30966</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24665</v>
+        <v>25159</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4325</v>
+        <v>5014</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3059</v>
+        <v>3103</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5664</v>
+        <v>6247</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10432</v>
+        <v>10455</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16298</v>
+        <v>16281</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>50045</v>
+        <v>50918</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>39908</v>
+        <v>40143</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>39984</v>
+        <v>41294</v>
       </c>
     </row>
     <row r="19">
@@ -2031,40 +2031,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24825</v>
+        <v>24249</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>75772</v>
+        <v>77638</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>57997</v>
+        <v>57732</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>52153</v>
+        <v>51259</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17195</v>
+        <v>17449</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13757</v>
+        <v>14583</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19331</v>
+        <v>19478</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>29399</v>
+        <v>27902</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>35337</v>
+        <v>36046</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>82883</v>
+        <v>84196</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>69456</v>
+        <v>71185</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>71801</v>
+        <v>73612</v>
       </c>
     </row>
     <row r="20">
